--- a/Implementation/Testing/Results/timings.xlsx
+++ b/Implementation/Testing/Results/timings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Named Pipes</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>Mailslot</t>
   </si>
 </sst>
 </file>
@@ -366,110 +369,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:H13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>467445</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1142183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>581098</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>835587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>457251</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>721557</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>572790</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>866926</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <v>675492</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>1139162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <v>773287</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>967363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <v>446678</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>849558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
         <v>486324</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>931492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <v>1268672</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>709853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <v>507469</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>936023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -477,10 +551,18 @@
         <f>AVERAGE(B3:B12)</f>
         <v>623650.6</v>
       </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <f>AVERAGE(E3:E12)</f>
+        <v>909970.4</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Implementation/Testing/Results/timings.xlsx
+++ b/Implementation/Testing/Results/timings.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
-  <si>
-    <t>Named Pipes</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t xml:space="preserve">Run </t>
   </si>
@@ -33,7 +30,13 @@
     <t>Average</t>
   </si>
   <si>
-    <t>Mailslot</t>
+    <t>Named Pipes (40 Bytes)</t>
+  </si>
+  <si>
+    <t>Mailslot (40 Bytes)</t>
+  </si>
+  <si>
+    <t>Winsock (40 Bytes)</t>
   </si>
 </sst>
 </file>
@@ -369,17 +372,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -388,181 +394,260 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>467445</v>
+        <v>1077617</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1142183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>887315</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2504495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>581098</v>
+        <v>551269</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4">
-        <v>835587</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>864283</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2651374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>457251</v>
+        <v>780460</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>721557</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>831811</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>2703858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>572790</v>
+        <v>1119150</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6">
-        <v>866926</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1107823</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>3002902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>675492</v>
+        <v>1043634</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7">
-        <v>1139162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>973781</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>2988554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>773287</v>
+        <v>926584</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8">
-        <v>967363</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>899020</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>2392731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>446678</v>
+        <v>1069687</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9">
-        <v>849558</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>819351</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>2601534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>486324</v>
+        <v>1432920</v>
       </c>
       <c r="D10">
         <v>8</v>
       </c>
       <c r="E10">
-        <v>931492</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>844649</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>2953061</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1268672</v>
+        <v>770265</v>
       </c>
       <c r="D11">
         <v>9</v>
       </c>
       <c r="E11">
-        <v>709853</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1049675</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>2869993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>507469</v>
+        <v>917145</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
       <c r="E12">
-        <v>936023</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>674737</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>2567551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <f>AVERAGE(B3:B12)</f>
-        <v>623650.6</v>
+        <v>968873.1</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <f>AVERAGE(E3:E12)</f>
-        <v>909970.4</v>
+        <v>895244.5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <f>AVERAGE(H3:H12)/2</f>
+        <v>1361802.65</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Implementation/Testing/Results/timings.xlsx
+++ b/Implementation/Testing/Results/timings.xlsx
@@ -18,8 +18,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="H13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Divided by 2 to represent sending of 1 message (i.e. not echoed back)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Divided by 2 to represent sending of 1 message (i.e. not echoed back)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t xml:space="preserve">Run </t>
   </si>
@@ -38,12 +96,15 @@
   <si>
     <t>Winsock (40 Bytes)</t>
   </si>
+  <si>
+    <t>Java Sockets (40 Bytes)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +120,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -371,19 +445,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -399,8 +474,13 @@
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -419,8 +499,14 @@
       <c r="H2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -439,8 +525,14 @@
       <c r="H3">
         <v>2504495</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>6751526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -459,8 +551,14 @@
       <c r="H4">
         <v>2651374</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>5226476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -479,8 +577,14 @@
       <c r="H5">
         <v>2703858</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>5336353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -499,8 +603,14 @@
       <c r="H6">
         <v>3002902</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>5476813</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -519,8 +629,14 @@
       <c r="H7">
         <v>2988554</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>5819657</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -539,8 +655,14 @@
       <c r="H8">
         <v>2392731</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>5788695</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -559,8 +681,14 @@
       <c r="H9">
         <v>2601534</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>5524766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -579,8 +707,14 @@
       <c r="H10">
         <v>2953061</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>8326795</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -599,8 +733,14 @@
       <c r="H11">
         <v>2869993</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>6031479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -619,8 +759,14 @@
       <c r="H12">
         <v>2567551</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>5402429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -642,14 +788,23 @@
         <f>AVERAGE(H3:H12)/2</f>
         <v>1361802.65</v>
       </c>
+      <c r="J13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <f>AVERAGE(K3:K12)/2</f>
+        <v>2984249.45</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Implementation/Testing/Results/timings.xlsx
+++ b/Implementation/Testing/Results/timings.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t xml:space="preserve">Run </t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Java Sockets (40 Bytes)</t>
+  </si>
+  <si>
+    <t>Memory Mapping (40 Bytes)</t>
   </si>
 </sst>
 </file>
@@ -446,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,8 +799,79 @@
         <v>2984249.45</v>
       </c>
     </row>
+    <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="A14:C14"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>

--- a/Implementation/Testing/Results/timings.xlsx
+++ b/Implementation/Testing/Results/timings.xlsx
@@ -452,7 +452,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,55 +818,89 @@
       <c r="A16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>90241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>75516</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>80047</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>71363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>74006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>107610</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>114407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>72873</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>89487</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>74383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2</v>
+      </c>
+      <c r="B26">
+        <f>AVERAGE(B16:B25)</f>
+        <v>84993.3</v>
       </c>
     </row>
   </sheetData>

--- a/Implementation/Testing/Results/timings.xlsx
+++ b/Implementation/Testing/Results/timings.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="1 Message Sent" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="H13" authorId="0" shapeId="0">
+    <comment ref="H13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K13" authorId="0" shapeId="0">
+    <comment ref="K13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t xml:space="preserve">Run </t>
   </si>
@@ -102,12 +102,15 @@
   <si>
     <t>Memory Mapping (40 Bytes)</t>
   </si>
+  <si>
+    <t>IO Time (NS)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +140,14 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -164,11 +175,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -229,7 +241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -264,7 +276,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -441,7 +453,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -452,13 +464,14 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -496,6 +509,9 @@
       <c r="E2" t="s">
         <v>1</v>
       </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
       <c r="G2" t="s">
         <v>0</v>
       </c>
@@ -522,6 +538,9 @@
       <c r="E3">
         <v>887315</v>
       </c>
+      <c r="F3">
+        <v>131637</v>
+      </c>
       <c r="G3">
         <v>1</v>
       </c>
@@ -548,6 +567,9 @@
       <c r="E4">
         <v>864283</v>
       </c>
+      <c r="F4">
+        <v>142792</v>
+      </c>
       <c r="G4">
         <v>2</v>
       </c>
@@ -574,6 +596,9 @@
       <c r="E5">
         <v>831811</v>
       </c>
+      <c r="F5">
+        <v>135653</v>
+      </c>
       <c r="G5">
         <v>3</v>
       </c>
@@ -600,6 +625,9 @@
       <c r="E6">
         <v>1107823</v>
       </c>
+      <c r="F6">
+        <v>172244</v>
+      </c>
       <c r="G6">
         <v>4</v>
       </c>
@@ -626,6 +654,9 @@
       <c r="E7">
         <v>973781</v>
       </c>
+      <c r="F7">
+        <v>130744</v>
+      </c>
       <c r="G7">
         <v>5</v>
       </c>
@@ -652,6 +683,9 @@
       <c r="E8">
         <v>899020</v>
       </c>
+      <c r="F8">
+        <v>81214</v>
+      </c>
       <c r="G8">
         <v>6</v>
       </c>
@@ -678,6 +712,9 @@
       <c r="E9">
         <v>819351</v>
       </c>
+      <c r="F9">
+        <v>136992</v>
+      </c>
       <c r="G9">
         <v>7</v>
       </c>
@@ -704,6 +741,9 @@
       <c r="E10">
         <v>844649</v>
       </c>
+      <c r="F10">
+        <v>123604</v>
+      </c>
       <c r="G10">
         <v>8</v>
       </c>
@@ -730,6 +770,9 @@
       <c r="E11">
         <v>1049675</v>
       </c>
+      <c r="F11">
+        <v>134760</v>
+      </c>
       <c r="G11">
         <v>9</v>
       </c>
@@ -756,6 +799,9 @@
       <c r="E12">
         <v>674737</v>
       </c>
+      <c r="F12">
+        <v>138331</v>
+      </c>
       <c r="G12">
         <v>10</v>
       </c>
@@ -770,31 +816,35 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>AVERAGE(B3:B12)</f>
         <v>968873.1</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <f>AVERAGE(E3:E12)</f>
         <v>895244.5</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" s="2">
+        <f>AVERAGE(F3:F12)</f>
+        <v>132797.1</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <f>AVERAGE(H3:H12)/2</f>
         <v>1361802.65</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="2">
         <f>AVERAGE(K3:K12)/2</f>
         <v>2984249.45</v>
       </c>
@@ -822,7 +872,7 @@
         <v>90241</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -830,15 +880,16 @@
         <v>75516</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18">
         <v>80047</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -846,7 +897,7 @@
         <v>71363</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -854,7 +905,7 @@
         <v>74006</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6</v>
       </c>
@@ -862,7 +913,7 @@
         <v>107610</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>7</v>
       </c>
@@ -870,7 +921,7 @@
         <v>114407</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8</v>
       </c>
@@ -878,7 +929,7 @@
         <v>72873</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>9</v>
       </c>
@@ -886,7 +937,7 @@
         <v>89487</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10</v>
       </c>
@@ -894,11 +945,11 @@
         <v>74383</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <f>AVERAGE(B16:B25)</f>
         <v>84993.3</v>
       </c>

--- a/Implementation/Testing/Results/timings.xlsx
+++ b/Implementation/Testing/Results/timings.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="1 Message Sent" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="H13" authorId="0">
+    <comment ref="H13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K13" authorId="0">
+    <comment ref="K13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t xml:space="preserve">Run </t>
   </si>
@@ -105,11 +105,14 @@
   <si>
     <t>IO Time (NS)</t>
   </si>
+  <si>
+    <t>Data Copy (40 Bytes)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,10 +180,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,7 +456,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -464,37 +467,38 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -816,45 +820,50 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1">
         <f>AVERAGE(B3:B12)</f>
         <v>968873.1</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
         <f>AVERAGE(E3:E12)</f>
         <v>895244.5</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <f>AVERAGE(F3:F12)</f>
         <v>132797.1</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="G13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
         <f>AVERAGE(H3:H12)/2</f>
         <v>1361802.65</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K13" s="2">
+      <c r="J13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1">
         <f>AVERAGE(K3:K12)/2</f>
         <v>2984249.45</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -863,6 +872,12 @@
       <c r="B15" t="s">
         <v>1</v>
       </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -871,6 +886,12 @@
       <c r="B16">
         <v>90241</v>
       </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1531657528</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -878,6 +899,12 @@
       </c>
       <c r="B17">
         <v>75516</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1886643750</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -887,7 +914,13 @@
       <c r="B18">
         <v>80047</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>2850938176</v>
+      </c>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -896,6 +929,12 @@
       <c r="B19">
         <v>71363</v>
       </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>2932208342</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -904,6 +943,12 @@
       <c r="B20">
         <v>74006</v>
       </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>2216775322</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -912,6 +957,12 @@
       <c r="B21">
         <v>107610</v>
       </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>3080610911</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -920,6 +971,12 @@
       <c r="B22">
         <v>114407</v>
       </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>3229107120</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -928,6 +985,12 @@
       <c r="B23">
         <v>72873</v>
       </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>2996263458</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -936,6 +999,12 @@
       <c r="B24">
         <v>89487</v>
       </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <v>2272719241</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -944,23 +1013,37 @@
       <c r="B25">
         <v>74383</v>
       </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>1559322136</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="2">
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1">
         <f>AVERAGE(B16:B25)</f>
         <v>84993.3</v>
       </c>
+      <c r="D26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <f>AVERAGE(E16:E25)</f>
+        <v>2455624598.4000001</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
+    <mergeCell ref="D14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
